--- a/topic02/book-b/archives/facebook-survey-lab4solution.xlsx
+++ b/topic02/book-b/archives/facebook-survey-lab4solution.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="165" windowWidth="19440" windowHeight="12180" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="165" windowWidth="19440" windowHeight="12180" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Friends Histogram" sheetId="8" r:id="rId1"/>
@@ -264,15 +264,15 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -431,11 +431,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-489491360"/>
-        <c:axId val="-162716400"/>
+        <c:axId val="39587232"/>
+        <c:axId val="39593760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-489491360"/>
+        <c:axId val="39587232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -464,7 +464,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-162716400"/>
+        <c:crossAx val="39593760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -472,7 +472,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-162716400"/>
+        <c:axId val="39593760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -501,7 +501,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-489491360"/>
+        <c:crossAx val="39587232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -567,10 +567,10 @@
           <c:order val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Friends Histogram'!$A$2:$A$10</c:f>
+              <c:f>'Friends Histogram'!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -597,16 +597,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Friends Histogram'!$D$2:$D$10</c:f>
+              <c:f>'Friends Histogram'!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.15151515151515152</c:v>
                 </c:pt>
@@ -633,6 +636,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.9696969696969695</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99999999999999978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -649,11 +655,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-162712592"/>
-        <c:axId val="-162715312"/>
+        <c:axId val="39591040"/>
+        <c:axId val="39590496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-162712592"/>
+        <c:axId val="39591040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -686,7 +692,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-162715312"/>
+        <c:crossAx val="39590496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -694,7 +700,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-162715312"/>
+        <c:axId val="39590496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -705,7 +711,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-162712592"/>
+        <c:crossAx val="39591040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -849,11 +855,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-162714768"/>
-        <c:axId val="-162714224"/>
+        <c:axId val="39585056"/>
+        <c:axId val="39594848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-162714768"/>
+        <c:axId val="39585056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -881,7 +887,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-162714224"/>
+        <c:crossAx val="39594848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -889,7 +895,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-162714224"/>
+        <c:axId val="39594848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -919,7 +925,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-162714768"/>
+        <c:crossAx val="39585056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1070,11 +1076,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-478202032"/>
-        <c:axId val="-478190608"/>
+        <c:axId val="39589408"/>
+        <c:axId val="39591584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-478202032"/>
+        <c:axId val="39589408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1117,7 +1123,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-478190608"/>
+        <c:crossAx val="39591584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1125,7 +1131,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-478190608"/>
+        <c:axId val="39591584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1176,7 +1182,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-478202032"/>
+        <c:crossAx val="39589408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2187,7 +2193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
@@ -2410,7 +2416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="C3" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
@@ -2528,7 +2534,7 @@
         <f>COUNTIF(C4:C36,"1-5")</f>
         <v>9</v>
       </c>
-      <c r="N5" s="30">
+      <c r="N5" s="28">
         <f>9/33</f>
         <v>0.27272727272727271</v>
       </c>
@@ -2569,7 +2575,7 @@
         <f>COUNTIF(C4:C36,"6-10")</f>
         <v>13</v>
       </c>
-      <c r="N6" s="30">
+      <c r="N6" s="28">
         <f>M6/33</f>
         <v>0.39393939393939392</v>
       </c>
@@ -2610,7 +2616,7 @@
         <f>COUNTIF(C4:C36,"11-15")</f>
         <v>5</v>
       </c>
-      <c r="N7" s="30">
+      <c r="N7" s="28">
         <f t="shared" ref="N7:N9" si="0">M7/33</f>
         <v>0.15151515151515152</v>
       </c>
@@ -2651,7 +2657,7 @@
         <f>COUNTIF(C4:C36,"16-20")</f>
         <v>3</v>
       </c>
-      <c r="N8" s="30">
+      <c r="N8" s="28">
         <f t="shared" si="0"/>
         <v>9.0909090909090912E-2</v>
       </c>
@@ -2692,7 +2698,7 @@
         <f>COUNTIF(C4:C36,"21-25")</f>
         <v>3</v>
       </c>
-      <c r="N9" s="30">
+      <c r="N9" s="28">
         <f t="shared" si="0"/>
         <v>9.0909090909090912E-2</v>
       </c>
@@ -2726,14 +2732,14 @@
         <f>COUNTIF($D$4:$D$36,6)</f>
         <v>5</v>
       </c>
-      <c r="L10" s="29" t="s">
+      <c r="L10" s="27" t="s">
         <v>27</v>
       </c>
       <c r="M10">
         <f>SUM(M5:M9)</f>
         <v>33</v>
       </c>
-      <c r="N10" s="30">
+      <c r="N10" s="28">
         <f>SUM(N5:N9)</f>
         <v>1</v>
       </c>
@@ -2767,7 +2773,7 @@
         <f>COUNTIF($D$4:$D$36,7)</f>
         <v>4</v>
       </c>
-      <c r="L11" s="28"/>
+      <c r="L11" s="26"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
@@ -2798,7 +2804,7 @@
         <f>COUNTIF($D$4:$D$36,8)</f>
         <v>2</v>
       </c>
-      <c r="L12" s="28"/>
+      <c r="L12" s="26"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
@@ -2829,7 +2835,7 @@
         <f>COUNTIF($D$4:$D$36,9)</f>
         <v>2</v>
       </c>
-      <c r="L13" s="28"/>
+      <c r="L13" s="26"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
@@ -2857,7 +2863,7 @@
         <f>COUNTIF($D$4:$D$36,10)</f>
         <v>2</v>
       </c>
-      <c r="L14" s="28"/>
+      <c r="L14" s="26"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
@@ -2882,7 +2888,7 @@
         <f>COUNTIF($D$4:$D$36,11)</f>
         <v>0</v>
       </c>
-      <c r="L15" s="28"/>
+      <c r="L15" s="26"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
@@ -2907,7 +2913,7 @@
         <f>COUNTIF($D$4:$D$36,12)</f>
         <v>2</v>
       </c>
-      <c r="L16" s="28"/>
+      <c r="L16" s="26"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
@@ -3294,21 +3300,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
     </row>
     <row r="3" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
@@ -3422,14 +3428,14 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
     </row>
     <row r="10" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
